--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FFFAB3-F18C-4F36-8CA5-8D6CEB95EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6DECE9-829C-49A3-9EC5-AAD587E08CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="1332" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,10 +723,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -814,10 +814,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -839,7 +839,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -879,7 +879,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -919,7 +919,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -959,7 +959,7 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1014,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1039,7 +1039,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,10 +1054,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1079,7 +1079,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7885,12 +7885,8 @@
       <c r="D2" s="9">
         <v>0.25</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -7910,9 +7906,7 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="9">
-        <v>0</v>
-      </c>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7925,12 +7919,8 @@
       <c r="D3" s="9">
         <v>25</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -7950,9 +7940,7 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -7965,12 +7953,8 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -7990,9 +7974,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="9">
-        <v>0</v>
-      </c>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -8005,12 +7987,8 @@
       <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -8030,9 +8008,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -14852,7 +14828,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14915,15 +14891,9 @@
         <v>2</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>0</v>
-      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14933,15 +14903,9 @@
         <v>3</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -14951,15 +14915,9 @@
         <v>0</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>0</v>
-      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -14969,15 +14927,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6DECE9-829C-49A3-9EC5-AAD587E08CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634DAFF-B26F-40DD-9E7D-285C26D644B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="1332" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -722,11 +722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1079,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7813,10 +7813,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7885,8 +7885,12 @@
       <c r="D2" s="9">
         <v>0.25</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -7906,7 +7910,9 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7919,8 +7925,12 @@
       <c r="D3" s="9">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -7940,7 +7950,9 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -7953,8 +7965,12 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -7974,7 +7990,9 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -7987,8 +8005,12 @@
       <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -8008,7 +8030,9 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -14824,11 +14848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14891,9 +14915,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -14903,9 +14933,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -14915,21 +14951,33 @@
         <v>0</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634DAFF-B26F-40DD-9E7D-285C26D644B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E44F6-2D8B-4BEF-9568-9A56DBA1BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>frecuencia[Hz]:</t>
   </si>
@@ -17494,1353 +17494,1131 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA22" sqref="AA22"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="24" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="23" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
+      <c r="B1" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-    </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-    </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-    </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-    </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-    </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-    </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-    </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-    </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-    </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-    </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-    </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-    </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-    </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-    </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-    </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-    </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-    </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-    </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-    </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-    </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-    </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-    </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-    </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-    </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-    </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-    </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-    </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-    </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-    </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-    </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-    </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-    </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-    </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-    </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-    </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-    </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-    </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-    </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-    </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-    </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-    </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-    </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-    </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-    </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-    </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-    </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-    </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-    </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-    </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-    </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-    </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="221" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27428,7 +27206,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E44F6-2D8B-4BEF-9568-9A56DBA1BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87292FB-F42B-4298-B7B8-AD248D51B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14852,7 +14852,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14922,7 +14922,7 @@
         <v>5</v>
       </c>
       <c r="Z2" s="9">
-        <v>0</v>
+        <v>0.20580000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14940,7 +14940,7 @@
         <v>5</v>
       </c>
       <c r="Z3" s="9">
-        <v>0</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14958,7 +14958,7 @@
         <v>5</v>
       </c>
       <c r="Z4" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14976,7 +14976,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17491,7 +17491,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E5C9D1-E0F0-4489-B6A2-DE2E656B2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194AC56-7D29-43A8-94AD-91651C9E3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -716,13 +716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -778,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,98 +814,50 @@
         <v>4</v>
       </c>
       <c r="E4" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8">
         <v>5</v>
       </c>
       <c r="G4" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -2788,33 +2740,9 @@
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-    </row>
-    <row r="220" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3592,9 +3520,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3613,7 +3538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3715,7 +3640,7 @@
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -3735,13 +3660,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -6461,13 +6398,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6532,7 +6469,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="8">
-        <v>5464</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6540,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -6555,14 +6492,14 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8">
         <v>5</v>
@@ -6572,12 +6509,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -9089,7 +9036,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194AC56-7D29-43A8-94AD-91651C9E3369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48017AE-7E0E-4129-AD83-7C003D248E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1656" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -718,11 +718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3639,46 +3639,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5</v>
-      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -6400,11 +6376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6441,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
@@ -6459,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
@@ -6474,57 +6450,37 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.25</v>
-      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>6</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.25</v>
-      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48017AE-7E0E-4129-AD83-7C003D248E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9A159-9771-48B8-8261-36CEF47EC4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1656" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -772,13 +772,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
       </c>
       <c r="G2" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,18 +793,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="8">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="F3" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -814,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="8">
-        <v>5</v>
-      </c>
       <c r="G4" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,10 +3535,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -3587,13 +3587,13 @@
         <v>0.25</v>
       </c>
       <c r="E2" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8">
         <v>5</v>
@@ -3632,10 +3632,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6421,13 +6421,13 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>0.20580000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6435,14 +6435,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8">
         <v>6</v>
@@ -6453,17 +6453,17 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9A159-9771-48B8-8261-36CEF47EC4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0297EDE-55F9-4910-9242-26EA307769E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="1512" windowWidth="13584" windowHeight="5820" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -719,10 +719,10 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -772,18 +772,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8">
@@ -793,35 +793,23 @@
         <v>3</v>
       </c>
       <c r="E3" s="8">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -3535,10 +3523,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3576,67 +3564,31 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>4</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="8">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8">
-        <v>4</v>
-      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8">
-        <v>9</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -6380,7 +6332,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6417,62 +6369,72 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="8">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="B3" s="7">
         <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>9</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="8">
-        <v>28</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="F3" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>87</v>
+        <v>0.53049999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>

--- a/data_io_copia.xlsx
+++ b/data_io_copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban Avila\Documents\Proyecto Redes Abr-Jul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0297EDE-55F9-4910-9242-26EA307769E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A9B8D-1DC2-47D8-BAB8-F99424D6884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="1512" windowWidth="13584" windowHeight="5820" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" r:id="rId1"/>
@@ -719,10 +719,10 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -766,10 +766,10 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
-        <v>10</v>
+        <v>169.7056</v>
       </c>
       <c r="D2" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
         <v>0.01</v>
@@ -787,10 +787,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8">
-        <v>5</v>
+        <v>169.7056</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -3520,13 +3520,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5525,15 +5525,7 @@
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-    </row>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6313,7 +6305,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6328,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
